--- a/test_api/test_case/login_testcase.xlsx
+++ b/test_api/test_case/login_testcase.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>用例场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6E46ABD0E6674F48859F8FCA025B6F69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,10 +93,6 @@
     <t>Cxjz_login_005</t>
   </si>
   <si>
-    <t>8f7f8aca7230e2bbf851189f8da681e3443200fb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更换设备,密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,31 +117,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"msg": "设备不一致，需要发送验证码，调用发送验证码接口"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/galaxy/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/galaxy/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "密码错误"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
+  </si>
+  <si>
+    <t>AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"msg": "手机号未注册"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg": "设备不一致，需要发送验证码，调用发送验证码接口"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/galaxy/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/galaxy/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8f7f8aca7230e2bbe851189f8da681e3443200fb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,6 +279,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,15 +295,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -610,62 +614,62 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="9" width="33.375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -680,10 +684,10 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -692,27 +696,30 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>13207140256</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -721,27 +728,27 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1">
         <v>13207140256</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
+      <c r="G5" s="1">
+        <v>111111</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -750,27 +757,27 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>13307140256</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
+      <c r="G6" s="1">
+        <v>222222</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -779,7 +786,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>13207140256</v>
@@ -788,44 +795,44 @@
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>13207140256</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>8</v>
+      <c r="G8" s="1">
+        <v>111111</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -838,7 +845,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -851,7 +858,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -864,7 +871,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -877,7 +884,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -890,7 +897,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -903,7 +910,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -916,7 +923,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>

--- a/test_api/test_case/login_testcase.xlsx
+++ b/test_api/test_case/login_testcase.xlsx
@@ -10,12 +10,11 @@
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>用例场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,15 +143,27 @@
     <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
   </si>
   <si>
-    <t>AAAAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>"msg": "手机号未注册"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEEEEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPPPPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13207140256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13307140256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,6 +293,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,6 +309,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,7 +621,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,42 +637,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
@@ -665,9 +682,9 @@
       <c r="H2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -698,14 +715,14 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1">
-        <v>13207140256</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
@@ -730,13 +747,13 @@
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1">
-        <v>13207140256</v>
-      </c>
-      <c r="G5" s="1">
-        <v>111111</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="F5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -759,17 +776,17 @@
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1">
-        <v>13307140256</v>
-      </c>
-      <c r="G6" s="1">
-        <v>222222</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -788,14 +805,14 @@
       <c r="E7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="1">
-        <v>13207140256</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>26</v>
@@ -817,14 +834,14 @@
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1">
-        <v>13207140256</v>
-      </c>
-      <c r="G8" s="1">
-        <v>111111</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
+      <c r="F8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>

--- a/test_api/test_case/login_testcase.xlsx
+++ b/test_api/test_case/login_testcase.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>用例场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,15 +36,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5F46ABD0E6674F48859F8FCA025B6F69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8f7f8aca7230e2bbf851189f8da681e3443200fb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未更换设备且用户名密码正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未更换设备，密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_login_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_login_002</t>
+  </si>
+  <si>
+    <t>Cxjz_login_003</t>
+  </si>
+  <si>
+    <t>Cxjz_login_004</t>
+  </si>
+  <si>
+    <t>Cxjz_login_005</t>
+  </si>
+  <si>
+    <t>更换设备,密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "登陆成功"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "密码错误"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "设备不一致，需要发送验证码，调用发送验证码接口"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/galaxy/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/galaxy/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
+  </si>
+  <si>
+    <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "手机号未注册"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEEEEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPPPPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_login_006</t>
+  </si>
+  <si>
+    <t>'or 1=1--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>phone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5F46ABD0E6674F48859F8FCA025B6F69</t>
+    <t>equipment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -52,118 +162,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正常场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未更换设备且用户名密码正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未更换设备，密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号未注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更换设备且用户名密码正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxjz_login_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxjz_login_002</t>
-  </si>
-  <si>
-    <t>Cxjz_login_003</t>
-  </si>
-  <si>
-    <t>Cxjz_login_004</t>
-  </si>
-  <si>
-    <t>Cxjz_login_005</t>
-  </si>
-  <si>
-    <t>更换设备,密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg": "登陆成功"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例执行结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg": "密码错误"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg": "设备不一致，需要发送验证码，调用发送验证码接口"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/galaxy/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/galaxy/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg": "密码错误"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
-  </si>
-  <si>
-    <t>5A9E2398DC25406E9A41F7B283E1A3FE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg": "手机号未注册"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EEEEEE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPPPPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13207140256</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13307140256</t>
+    <t>SQL注入登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "账号,密码不可为空"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_login_007</t>
+  </si>
+  <si>
+    <t>Cxjz_login_008</t>
+  </si>
+  <si>
+    <t>设备号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_login_009</t>
+  </si>
+  <si>
+    <t>"msg": "设备号不可为空"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,25 +307,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,9 +359,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -618,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,399 +683,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="6" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13207140256</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6">
+        <v>13207140256</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
+      <c r="I4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
+        <v>13307140256</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>31</v>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>34</v>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6">
+        <v>13207140256</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6">
+        <v>13207140256</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
+    <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="11">
+        <v>13207140256</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="11">
+        <v>13207140256</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/test_api/test_case/login_testcase.xlsx
+++ b/test_api/test_case/login_testcase.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="thirdPartyIdLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>用例场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,14 +189,94 @@
     <t>Cxjz_login_008</t>
   </si>
   <si>
-    <t>设备号为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cxjz_login_009</t>
-  </si>
-  <si>
-    <t>"msg": "设备号不可为空"</t>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/galaxy/user/thirdPartyIdLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未更换设备，已绑定第三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换设备，已绑定第三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unionedId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unionedId为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_thirdPartyIdLogin_002</t>
+  </si>
+  <si>
+    <t>Cxjz_thirdPartyIdLogin_003</t>
+  </si>
+  <si>
+    <t>Cxjz_thirdPartyIdLogin_004</t>
+  </si>
+  <si>
+    <t>Cxjz_thirdPartyIdLogin_005</t>
+  </si>
+  <si>
+    <t>Cxjz_thirdPartyIdLogin_006</t>
+  </si>
+  <si>
+    <t>ozdijwM8tenCsjJVCWyeSVIYC3v4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "需要绑定手机号"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEEEEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'or 1=1--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cxjz_thirdPartyIdLogin_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUUUUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "登录成功"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未绑定第三方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL注入登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg": "唯一标识为空"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +315,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,22 +415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -359,7 +430,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,42 +770,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="14" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
@@ -728,265 +815,240 @@
       <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="18">
         <v>13207140256</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="18">
         <v>13207140256</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="18">
         <v>13307140256</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="18">
         <v>13207140256</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="18">
         <v>13207140256</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="6">
         <v>13207140256</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="8" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11">
-        <v>13207140256</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1004,4 +1066,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="30.125" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>